--- a/日报与周报-叶家俊2018.02.02.xlsx
+++ b/日报与周报-叶家俊2018.02.02.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>时间</t>
   </si>
@@ -65,6 +65,18 @@
   </si>
   <si>
     <t>以办公室为DEMO搭建测试环境，搭建定位系统；参加周会。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>搭建定位测试环境完成，测试算法。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>调试定位代码；制作办公室平面图。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Diapersens ppt制作，用于客户介绍。</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -525,7 +537,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C4"/>
+      <selection activeCell="E2" sqref="E2:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -579,8 +591,12 @@
       <c r="C2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="D2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="H2" s="7"/>
@@ -620,7 +636,9 @@
       <c r="C5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="10"/>
+      <c r="D5" s="10" t="s">
+        <v>15</v>
+      </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>

--- a/日报与周报-叶家俊2018.02.02.xlsx
+++ b/日报与周报-叶家俊2018.02.02.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>时间</t>
   </si>
@@ -72,11 +72,15 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>演示设备准备、测试，代码备份；查找相关的rssi算法；android fragment 学习。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>调试定位代码；制作办公室平面图。</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>Diapersens ppt制作，用于客户介绍。</t>
+    <t>Diapersens ppt制作，用于客户介绍；制作办公室平面图。</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -595,7 +599,7 @@
         <v>14</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -637,9 +641,11 @@
         <v>13</v>
       </c>
       <c r="D5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
       <c r="H5" s="7"/>
